--- a/Udemy/resources/Akku.xlsx
+++ b/Udemy/resources/Akku.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF35E9CD-9C56-4C5B-9F19-F1AC211E21AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24411388-092B-4131-A383-47F859CC3545}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -80,7 +80,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,14 +396,14 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.42578125" collapsed="false"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
